--- a/Data/Transitions/18831934Translation.xlsx
+++ b/Data/Transitions/18831934Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="828">
   <si>
     <t>id</t>
   </si>
@@ -28,22 +28,22 @@
     <t>{1.0: 1.0}</t>
   </si>
   <si>
-    <t>{486.0: 0.15701727550325684, 837.0: 0.002100902288399068}</t>
-  </si>
-  <si>
-    <t>{3.0: 0.7013754525363534}</t>
+    <t>{486.0: 0.15920630519368856, 837.0: 0.002186026782725736}</t>
+  </si>
+  <si>
+    <t>{3.0: 0.6949628567939019}</t>
   </si>
   <si>
     <t>{4.0: 1.0}</t>
   </si>
   <si>
-    <t>{5.0: 0.9881325570980743}</t>
+    <t>{5.0: 0.988177559669864}</t>
   </si>
   <si>
     <t>{6.0: 1.0}</t>
   </si>
   <si>
-    <t>{7.0: 0.9854496071393928}</t>
+    <t>{7.0: 0.9853027630805409}</t>
   </si>
   <si>
     <t>{8.0: 1.0}</t>
@@ -52,7 +52,7 @@
     <t>{9.0: 1.0}</t>
   </si>
   <si>
-    <t>{10.0: 0.9896835717381881}</t>
+    <t>{10.0: 0.9895951735594999}</t>
   </si>
   <si>
     <t>{11.0: 1.0}</t>
@@ -64,7 +64,7 @@
     <t>{13.0: 0.7259633800658852}</t>
   </si>
   <si>
-    <t>{14.0: 0.9690805402261538, 178.0: 0.00016231131309852296, 623.0: 0.0007625438462711606, 696.0: 0.0029159241859711645, 492.0: 1.804702755802187e-05}</t>
+    <t>{14.0: 0.9691308133691171, 178.0: 0.00016329196603527107, 623.0: 0.0007645259938837921, 696.0: 0.002995008319467554, 492.0: 1.842729104452426e-05}</t>
   </si>
   <si>
     <t>{15.0: 1.0}</t>
@@ -73,7 +73,7 @@
     <t>{16.0: 1.0}</t>
   </si>
   <si>
-    <t>{17.0: 0.989010989010989}</t>
+    <t>{17.0: 0.9890756302521009}</t>
   </si>
   <si>
     <t>{18.0: 1.0}</t>
@@ -85,7 +85,7 @@
     <t>{32.0: 1.0}</t>
   </si>
   <si>
-    <t>{34.0: 1.0, 78.0: 0.13866427073974244}</t>
+    <t>{34.0: 1.0, 78.0: 0.12802433291856768}</t>
   </si>
   <si>
     <t>{35.0: 1.0}</t>
@@ -106,13 +106,13 @@
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 1.0, 90.0: 0.020710491553906, 246.0: 0.01497582965958572, 681.0: 0.0030888723019257, 741.0: 0.006816245384833854, 789.0: 0.0030857033245445683}</t>
+    <t>{46.0: 1.0, 90.0: 0.020732328647176654, 246.0: 0.014966331567818519, 681.0: 0.003093174352485485, 741.0: 0.006816245384833854, 789.0: 0.0030919626462848826}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
   </si>
   <si>
-    <t>{48.0: 1.0, 443.0: 0.03765690376569038, 291.0: 0.0025782349920288987}</t>
+    <t>{48.0: 1.0, 443.0: 0.03748355984217448, 291.0: 0.002574966691196572}</t>
   </si>
   <si>
     <t>{49.0: 1.0}</t>
@@ -130,7 +130,7 @@
     <t>{60.0: 1.0}</t>
   </si>
   <si>
-    <t>{834.0: 0.42733454268782284}</t>
+    <t>{834.0: 0.42673645002733873}</t>
   </si>
   <si>
     <t>{62.0: 1.0}</t>
@@ -142,16 +142,16 @@
     <t>{69.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: 0.01771820743133378}</t>
-  </si>
-  <si>
-    <t>{71.0: 0.9914243102162565}</t>
+    <t>{311.0: 0.01860608334454884}</t>
+  </si>
+  <si>
+    <t>{71.0: 0.9914200447649838}</t>
   </si>
   <si>
     <t>{72.0: 1.0}</t>
   </si>
   <si>
-    <t>{73.0: 0.9985699985699986}</t>
+    <t>{73.0: 0.9985652797704447}</t>
   </si>
   <si>
     <t>{74.0: 1.0}</t>
@@ -166,16 +166,16 @@
     <t>{77.0: 1.0}</t>
   </si>
   <si>
-    <t>{78.0: 0.8613357292602576}</t>
+    <t>{78.0: 0.8719756670814324}</t>
   </si>
   <si>
     <t>{79.0: 1.0}</t>
   </si>
   <si>
-    <t>{764.0: 0.1492238996385286, 147.0: 0.011740977828378402, 703.0: 0.028021918032668715}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.7813823256000803}</t>
+    <t>{764.0: 0.1490527567751253, 147.0: 0.013592176415099817, 703.0: 0.03196073877702949}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.7794077557009111}</t>
   </si>
   <si>
     <t>{82.0: 1.0}</t>
@@ -190,7 +190,7 @@
     <t>{85.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.3966038535953838}</t>
+    <t>{86.0: 0.39472598793346425}</t>
   </si>
   <si>
     <t>{87.0: 1.0}</t>
@@ -202,10 +202,10 @@
     <t>{89.0: 1.0}</t>
   </si>
   <si>
-    <t>{90.0: 0.9458762626498309}</t>
-  </si>
-  <si>
-    <t>{91.0: 0.9996668959460804, 92.0: 0.00048240753372836133}</t>
+    <t>{90.0: 0.9458544255565603}</t>
+  </si>
+  <si>
+    <t>{91.0: 0.9996710680889056, 92.0: 0.00045341967757672974}</t>
   </si>
   <si>
     <t>{92.0: 0.9335071707953064}</t>
@@ -226,7 +226,7 @@
     <t>{97.0: 1.0}</t>
   </si>
   <si>
-    <t>{98.0: 0.3186909432682987}</t>
+    <t>{98.0: 0.3217218663429814}</t>
   </si>
   <si>
     <t>{99.0: 1.0}</t>
@@ -244,46 +244,46 @@
     <t>{103.0: 1.0}</t>
   </si>
   <si>
-    <t>{92.0: 0.012229296127601213}</t>
+    <t>{92.0: 0.01225829553592743}</t>
   </si>
   <si>
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: 0.3809666079163851, 86.0: 0.16850881316792723}</t>
-  </si>
-  <si>
-    <t>{108.0: 0.9912172052696768, 144.0: 0.008141609952717104}</t>
-  </si>
-  <si>
-    <t>{109.0: 1.0, 110.0: 0.0231353591160221}</t>
-  </si>
-  <si>
-    <t>{110.0: 0.976864640883978}</t>
+    <t>{543.0: 0.3807887096637884, 86.0: 0.1685234797025494}</t>
+  </si>
+  <si>
+    <t>{108.0: 0.9912221471978393, 144.0: 0.008141467939881864}</t>
+  </si>
+  <si>
+    <t>{109.0: 1.0, 110.0: 0.02275042444821732}</t>
+  </si>
+  <si>
+    <t>{110.0: 0.9772495755517827}</t>
   </si>
   <si>
     <t>{139.0: 0.6022249604757921}</t>
   </si>
   <si>
-    <t>{141.0: 0.03256451940662467}</t>
-  </si>
-  <si>
-    <t>{141.0: 0.678207582535171, 762.0: 0.7010364992187316}</t>
-  </si>
-  <si>
-    <t>{142.0: 0.6824977236609803}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9569793200618738}</t>
+    <t>{141.0: 0.0324770735167452}</t>
+  </si>
+  <si>
+    <t>{141.0: 0.6782688852956832, 762.0: 0.7010364992187316}</t>
+  </si>
+  <si>
+    <t>{142.0: 0.6824606825091657}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9569578564997833}</t>
   </si>
   <si>
     <t>{145.0: 1.0}</t>
   </si>
   <si>
-    <t>{146.0: 0.6945303597590754}</t>
-  </si>
-  <si>
-    <t>{147.0: 0.8139186154048426, 764.0: 0.02364448224537529, 733.0: 0.0815552394499763}</t>
+    <t>{146.0: 0.7349950571953114}</t>
+  </si>
+  <si>
+    <t>{147.0: 0.8166473215085218, 764.0: 0.023617364709880215, 733.0: 0.07612303606992697}</t>
   </si>
   <si>
     <t>{148.0: 1.0}</t>
@@ -298,10 +298,10 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 1.0, 975.0: 0.0008218266525426588}</t>
-  </si>
-  <si>
-    <t>{162.0: 0.6392101731740047}</t>
+    <t>{152.0: 1.0, 975.0: 0.0008217910235256162}</t>
+  </si>
+  <si>
+    <t>{162.0: 0.6433579685427326}</t>
   </si>
   <si>
     <t>{163.0: 1.0}</t>
@@ -310,7 +310,7 @@
     <t>{164.0: 1.0}</t>
   </si>
   <si>
-    <t>{165.0: 0.9615337347916922, 914.0: 0.02521597011440579}</t>
+    <t>{165.0: 0.9614104302798668, 914.0: 0.02521597011440579}</t>
   </si>
   <si>
     <t>{166.0: 1.0}</t>
@@ -328,16 +328,16 @@
     <t>{170.0: 1.0}</t>
   </si>
   <si>
-    <t>{171.0: 0.6837236456320245}</t>
-  </si>
-  <si>
-    <t>{172.0: 0.9428147659854977, 81.0: 0.0036875050759796143}</t>
+    <t>{171.0: 0.6866020196252851}</t>
+  </si>
+  <si>
+    <t>{172.0: 0.9421280853902602, 81.0: 0.0036781866715474803}</t>
   </si>
   <si>
     <t>{173.0: 0.8485467756584922}</t>
   </si>
   <si>
-    <t>{174.0: 1.0, 534.0: 0.04851715745215711}</t>
+    <t>{174.0: 1.0, 534.0: 0.046148460782555245}</t>
   </si>
   <si>
     <t>{175.0: 1.0}</t>
@@ -349,25 +349,25 @@
     <t>{562.0: 0.3589476967869398}</t>
   </si>
   <si>
-    <t>{178.0: 0.9998376886869015, 14.0: 0.030919459773846237}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.031122687395578948}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.925063318636872, 410.0: 0.024561824090018856}</t>
+    <t>{178.0: 0.9998367080339647, 14.0: 0.030869186630882887}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.028080106910640466}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.9351732379460341, 410.0: 0.02435244277531649}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.6477801374923218}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.16187171408892798}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.997979117547996, 171.0: 0.058624217874188374, 593.0: 0.04805087026806601, 778.0: 0.0005968011458582001}</t>
+    <t>{182.0: 0.6467200725568916}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.16235887418898493}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.9979626485568761, 171.0: 0.05859717183288125, 593.0: 0.047934463496061015, 778.0: 0.0005811250581125058}</t>
   </si>
   <si>
     <t>{185.0: 0.9243525670149931}</t>
@@ -376,16 +376,16 @@
     <t>{202.0: 1.0}</t>
   </si>
   <si>
-    <t>{203.0: 0.8504763219660362}</t>
-  </si>
-  <si>
-    <t>{204.0: 0.6588668359674664, 857.0: 0.004863297494749244}</t>
+    <t>{203.0: 0.8511544804837823}</t>
+  </si>
+  <si>
+    <t>{204.0: 0.658856714347742, 857.0: 0.004861501441056218}</t>
   </si>
   <si>
     <t>{205.0: 1.0}</t>
   </si>
   <si>
-    <t>{206.0: 0.8527388535031847, 785.0: 0.12581933996307887}</t>
+    <t>{206.0: 0.8527388535031847, 785.0: 0.1295359842365321}</t>
   </si>
   <si>
     <t>{207.0: 1.0}</t>
@@ -400,10 +400,10 @@
     <t>{210.0: 1.0}</t>
   </si>
   <si>
-    <t>{211.0: 0.970627863109674}</t>
-  </si>
-  <si>
-    <t>{212.0: 1.0, 681.0: 0.13071645248533406}</t>
+    <t>{211.0: 0.9704727075714479}</t>
+  </si>
+  <si>
+    <t>{212.0: 1.0, 681.0: 0.13072427439544276}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -412,16 +412,16 @@
     <t>{214.0: 1.0}</t>
   </si>
   <si>
-    <t>{897.0: 0.24406536889838756}</t>
-  </si>
-  <si>
-    <t>{265.0: 0.18569618736466076}</t>
-  </si>
-  <si>
-    <t>{217.0: 0.9946335737045111}</t>
-  </si>
-  <si>
-    <t>{218.0: 1.0, 409.0: 0.12090597299870061}</t>
+    <t>{897.0: 0.24357767221532678}</t>
+  </si>
+  <si>
+    <t>{265.0: 0.13819736127734558}</t>
+  </si>
+  <si>
+    <t>{217.0: 0.9945955075156223}</t>
+  </si>
+  <si>
+    <t>{218.0: 1.0, 409.0: 0.12102073873692254}</t>
   </si>
   <si>
     <t>{480.0: 0.36969409532843256}</t>
@@ -433,7 +433,7 @@
     <t>{222.0: 1.0}</t>
   </si>
   <si>
-    <t>{223.0: 0.9808052434456929}</t>
+    <t>{223.0: 0.9809390980939098}</t>
   </si>
   <si>
     <t>{225.0: 1.0}</t>
@@ -442,10 +442,10 @@
     <t>{226.0: 0.9303888093402357}</t>
   </si>
   <si>
-    <t>{227.0: 0.6596534653465347}</t>
-  </si>
-  <si>
-    <t>{228.0: 1.0, 738.0: 0.003872216844143272}</t>
+    <t>{227.0: 0.6191135734072022}</t>
+  </si>
+  <si>
+    <t>{228.0: 1.0, 738.0: 0.003875968992248062}</t>
   </si>
   <si>
     <t>{229.0: 1.0}</t>
@@ -478,10 +478,13 @@
     <t>{595.0: 0.2768752160387141}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.0005244755244755245}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.9994755244755245}</t>
+    <t>{240.0: 1.0, 241.0: 0.0005183137525915688}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.9994816862474084}</t>
+  </si>
+  <si>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -490,7 +493,7 @@
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.6411979451724658}</t>
+    <t>{246.0: 0.6414567650874317}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -499,13 +502,13 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.8066747612911751}</t>
-  </si>
-  <si>
-    <t>{581.0: 0.2846212700841622, 144.0: 0.009906792712120634}</t>
-  </si>
-  <si>
-    <t>{251.0: 0.4466893330379997}</t>
+    <t>{249.0: 0.8066389006587737}</t>
+  </si>
+  <si>
+    <t>{581.0: 0.2844347351174222, 144.0: 0.009906457384172054}</t>
+  </si>
+  <si>
+    <t>{251.0: 0.46403865886525403}</t>
   </si>
   <si>
     <t>{252.0: 1.0}</t>
@@ -544,13 +547,13 @@
     <t>{263.0: 1.0}</t>
   </si>
   <si>
-    <t>{264.0: 0.6835574988873149}</t>
-  </si>
-  <si>
-    <t>{265.0: 0.3553158701756005}</t>
-  </si>
-  <si>
-    <t>{834.0: 0.04639473584516582, 887.0: 0.17626442298656703}</t>
+    <t>{264.0: 0.682497900938089}</t>
+  </si>
+  <si>
+    <t>{265.0: 0.4028146962629157}</t>
+  </si>
+  <si>
+    <t>{834.0: 0.04700377208796266, 887.0: 0.17737532539717435}</t>
   </si>
   <si>
     <t>{268.0: 0.8952197553239691}</t>
@@ -562,7 +565,7 @@
     <t>{271.0: 1.0}</t>
   </si>
   <si>
-    <t>{272.0: 1.0, 203.0: 0.14952367803396382}</t>
+    <t>{272.0: 1.0, 203.0: 0.1488455195162177}</t>
   </si>
   <si>
     <t>{273.0: 1.0}</t>
@@ -571,16 +574,16 @@
     <t>{274.0: 1.0}</t>
   </si>
   <si>
-    <t>{686.0: 0.3946098826756189}</t>
-  </si>
-  <si>
-    <t>{276.0: 0.6655472862588492}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.6714727429795629, 180.0: 0.013440490527115429}</t>
-  </si>
-  <si>
-    <t>{278.0: 1.0, 767.0: 0.007574832009773977, 147.0: 0.0023024855046910923, 703.0: 0.0054952884697485865}</t>
+    <t>{686.0: 0.39461948541510167}</t>
+  </si>
+  <si>
+    <t>{276.0: 0.6650608980185421}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.6713414248650419, 180.0: 0.022035546228847406}</t>
+  </si>
+  <si>
+    <t>{278.0: 1.0, 767.0: 0.006935123042505592, 147.0: 0.002453415487043681, 703.0: 0.005768978351826802}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -592,7 +595,7 @@
     <t>{281.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.19034814841875028}</t>
+    <t>{182.0: 0.19092105325412345}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -601,25 +604,25 @@
     <t>{284.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: 0.23822317750313451}</t>
-  </si>
-  <si>
-    <t>{909.0: 0.1776004475142387}</t>
+    <t>{311.0: 0.2053419793114096}</t>
+  </si>
+  <si>
+    <t>{909.0: 0.18034251035223528}</t>
   </si>
   <si>
     <t>{287.0: 1.0}</t>
   </si>
   <si>
-    <t>{288.0: 0.9978448275862069}</t>
-  </si>
-  <si>
-    <t>{289.0: 0.8378034656314187, 730.0: 0.2998825373404282}</t>
+    <t>{288.0: 0.9978511952726296}</t>
+  </si>
+  <si>
+    <t>{289.0: 0.8379762146830797, 730.0: 0.30062820449168093}</t>
   </si>
   <si>
     <t>{290.0: 1.0}</t>
   </si>
   <si>
-    <t>{291.0: 0.9315335374338992}</t>
+    <t>{291.0: 0.9313041049986037}</t>
   </si>
   <si>
     <t>{292.0: 1.0, 139.0: 0.07253950479034466}</t>
@@ -640,7 +643,7 @@
     <t>{297.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.5243254148187214}</t>
+    <t>{298.0: 0.5212564069352182}</t>
   </si>
   <si>
     <t>{299.0: 1.0}</t>
@@ -655,31 +658,31 @@
     <t>{302.0: 1.0}</t>
   </si>
   <si>
-    <t>{303.0: 0.9137777777777778}</t>
+    <t>{303.0: 0.9136242208370436}</t>
   </si>
   <si>
     <t>{304.0: 1.0}</t>
   </si>
   <si>
-    <t>{305.0: 0.7922672313682628}</t>
-  </si>
-  <si>
-    <t>{142.0: 0.31750227633901973, 909.0: 0.40590425741616165}</t>
-  </si>
-  <si>
-    <t>{602.0: 0.11309836927932668}</t>
+    <t>{305.0: 0.7921536463673023}</t>
+  </si>
+  <si>
+    <t>{142.0: 0.3175393174908343, 909.0: 0.4059227876252623}</t>
+  </si>
+  <si>
+    <t>{602.0: 0.07660787457687511}</t>
   </si>
   <si>
     <t>{587.0: 0.40862205765670456}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 204.0: 0.09152704411215894}</t>
+    <t>{309.0: 1.0, 204.0: 0.09153716573188346}</t>
   </si>
   <si>
     <t>{310.0: 1.0, 887.0: 0.029663050782374963}</t>
   </si>
   <si>
-    <t>{311.0: 0.7440586150655317, 917.0: 0.024578971324533454}</t>
+    <t>{311.0: 0.7760519373440415, 917.0: 0.024578971324533454}</t>
   </si>
   <si>
     <t>{313.0: 1.0}</t>
@@ -688,7 +691,7 @@
     <t>{314.0: 1.0}</t>
   </si>
   <si>
-    <t>{315.0: 1.0, 217.0: 0.005366426295488848}</t>
+    <t>{315.0: 1.0, 217.0: 0.005404492484377639}</t>
   </si>
   <si>
     <t>{316.0: 1.0}</t>
@@ -703,31 +706,28 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{98.0: 0.6813090567317013}</t>
+    <t>{98.0: 0.6782781336570187}</t>
   </si>
   <si>
     <t>{399.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 1.0, 897.0: 0.017055178518737092}</t>
+    <t>{400.0: 1.0, 897.0: 0.016870001751211255}</t>
   </si>
   <si>
     <t>{401.0: 0.9842657342657343}</t>
   </si>
   <si>
-    <t>{402.0: 1.0, 476.0: 0.014933895797873095, 595.0: 0.0010184611159762026}</t>
+    <t>{402.0: 1.0, 476.0: 0.014905851383004936, 595.0: 0.0010103951027521977}</t>
   </si>
   <si>
     <t>{403.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.6445586184219266}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.29057903447578165}</t>
+    <t>{404.0: 0.6419002209693747}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.2931571308110857}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -739,10 +739,10 @@
     <t>{408.0: 1.0}</t>
   </si>
   <si>
-    <t>{409.0: 0.8790940270012993}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.6920026961014009}</t>
+    <t>{409.0: 0.8789792612630773}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.6922120774161032}</t>
   </si>
   <si>
     <t>{268.0: 0.10478024467603081}</t>
@@ -763,19 +763,19 @@
     <t>{417.0: 1.0}</t>
   </si>
   <si>
-    <t>{418.0: 0.8796827421550545}</t>
-  </si>
-  <si>
-    <t>{419.0: 1.0, 17.0: 0.01098901098901099}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.865523866886647}</t>
+    <t>{418.0: 0.879367457019463}</t>
+  </si>
+  <si>
+    <t>{419.0: 1.0, 17.0: 0.010924369747899159}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.8641091794830309}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{423.0: 0.9963219385547382}</t>
+    <t>{423.0: 0.9963346269943941}</t>
   </si>
   <si>
     <t>{424.0: 1.0}</t>
@@ -793,19 +793,19 @@
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.20950311897449783}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.4948058905654396}</t>
+    <t>{431.0: 0.15609425565777582}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.5482147538821617}</t>
   </si>
   <si>
     <t>{432.0: 1.0}</t>
   </si>
   <si>
-    <t>{433.0: 0.991723641597697}</t>
-  </si>
-  <si>
-    <t>{434.0: 0.9806678383128296}</t>
+    <t>{433.0: 0.9916727009413469}</t>
+  </si>
+  <si>
+    <t>{434.0: 0.9826452800420721}</t>
   </si>
   <si>
     <t>{435.0: 1.0}</t>
@@ -814,7 +814,7 @@
     <t>{436.0: 1.0}</t>
   </si>
   <si>
-    <t>{162.0: 0.36078982682599525}</t>
+    <t>{162.0: 0.35664203145726736}</t>
   </si>
   <si>
     <t>{438.0: 1.0}</t>
@@ -826,19 +826,19 @@
     <t>{440.0: 1.0}</t>
   </si>
   <si>
-    <t>{441.0: 1.0, 782.0: 0.006252227047149218}</t>
+    <t>{441.0: 1.0, 782.0: 0.006393517532387943}</t>
   </si>
   <si>
     <t>{442.0: 1.0}</t>
   </si>
   <si>
-    <t>{443.0: 0.9623430962343096, 291.0: 0.06588822757407185}</t>
+    <t>{443.0: 0.9625164401578256, 291.0: 0.0661209283101997}</t>
   </si>
   <si>
     <t>{475.0: 1.0}</t>
   </si>
   <si>
-    <t>{476.0: 0.826947033667272, 595.0: 0.056396094506158886}</t>
+    <t>{476.0: 0.8253941069561146, 595.0: 0.05594944844679226}</t>
   </si>
   <si>
     <t>{477.0: 1.0}</t>
@@ -853,7 +853,7 @@
     <t>{480.0: 0.6303059046715674}</t>
   </si>
   <si>
-    <t>{481.0: 0.9938574938574939}</t>
+    <t>{481.0: 0.9938423645320197}</t>
   </si>
   <si>
     <t>{431.0: 0.1544172726317702}</t>
@@ -868,7 +868,7 @@
     <t>{485.0: 1.0}</t>
   </si>
   <si>
-    <t>{486.0: 0.5247579841756855, 837.0: 0.0070212990658312146}</t>
+    <t>{486.0: 0.5225689544852539, 837.0: 0.007175279452255245}</t>
   </si>
   <si>
     <t>{487.0: 1.0}</t>
@@ -883,25 +883,25 @@
     <t>{490.0: 1.0}</t>
   </si>
   <si>
-    <t>{491.0: 1.0, 492.0: 0.2332358287409201}</t>
-  </si>
-  <si>
-    <t>{492.0: 0.7605750434193205}</t>
-  </si>
-  <si>
-    <t>{493.0: 0.9920582395764395, 108.0: 0.008713043878725625, 144.0: 7.156676093227567e-05}</t>
+    <t>{491.0: 1.0, 492.0: 0.233340311686442}</t>
+  </si>
+  <si>
+    <t>{492.0: 0.7605070205814697}</t>
+  </si>
+  <si>
+    <t>{493.0: 0.9920826918847592, 108.0: 0.008708355836935765, 144.0: 7.152665026293531e-05}</t>
   </si>
   <si>
     <t>{494.0: 0.9441460794844253}</t>
   </si>
   <si>
-    <t>{495.0: 0.9301775147928995}</t>
+    <t>{495.0: 0.9292226487523992}</t>
   </si>
   <si>
     <t>{496.0: 1.0}</t>
   </si>
   <si>
-    <t>{497.0: 0.7430485921510396, 321.0: 1.0}</t>
+    <t>{497.0: 0.7419683051052892, 321.0: 1.0}</t>
   </si>
   <si>
     <t>{498.0: 1.0}</t>
@@ -910,13 +910,13 @@
     <t>{499.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.21443956244325174, 180.0: 0.004292315567223292}</t>
+    <t>{277.0: 0.21357773180695558, 180.0: 0.007010295817259658}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.1870200326304875}</t>
+    <t>{534.0: 0.17598260269811342}</t>
   </si>
   <si>
     <t>{503.0: 1.0}</t>
@@ -931,7 +931,7 @@
     <t>{249.0: 0.035140616245606826, 702.0: 0.04400142825868001}</t>
   </si>
   <si>
-    <t>{507.0: 0.7996186117467582}</t>
+    <t>{507.0: 0.7984965866380302}</t>
   </si>
   <si>
     <t>{529.0: 1.0}</t>
@@ -949,13 +949,13 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.44192687246253753}</t>
-  </si>
-  <si>
-    <t>{535.0: 1.0, 71.0: 0.008575689783743476}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.8551437537104571, 837.0: 0.03639104034620442}</t>
+    <t>{534.0: 0.4667568493776422}</t>
+  </si>
+  <si>
+    <t>{535.0: 1.0, 71.0: 0.008579955235016165}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.8534475447375116, 837.0: 0.03727082234591006}</t>
   </si>
   <si>
     <t>{537.0: 1.0}</t>
@@ -964,7 +964,7 @@
     <t>{538.0: 1.0}</t>
   </si>
   <si>
-    <t>{173.0: 0.1514532243415077, 185.0: 0.07564743298500681, 404.0: 0.04851045232719062, 930.0: 0.0698397178475399}</t>
+    <t>{173.0: 0.1514532243415077, 185.0: 0.07564743298500681, 404.0: 0.04851045232719062, 930.0: 0.07985944737262418}</t>
   </si>
   <si>
     <t>{540.0: 1.0}</t>
@@ -973,7 +973,7 @@
     <t>{542.0: 0.7394957983193278}</t>
   </si>
   <si>
-    <t>{543.0: 0.6073846805909588}</t>
+    <t>{543.0: 0.6075592312286351}</t>
   </si>
   <si>
     <t>{544.0: 1.0}</t>
@@ -991,7 +991,7 @@
     <t>{561.0: 1.0}</t>
   </si>
   <si>
-    <t>{562.0: 0.6410523032130602, 211.0: 0.029372136890326056}</t>
+    <t>{562.0: 0.6410523032130602, 211.0: 0.02952729242855208}</t>
   </si>
   <si>
     <t>{563.0: 0.9855681658960348}</t>
@@ -1027,10 +1027,10 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.652998204990364}</t>
-  </si>
-  <si>
-    <t>{581.0: 0.7153787299158378, 144.0: 0.024900137596324715, 303.0: 0.08622222222222223}</t>
+    <t>{580.0: 0.6519937929040612}</t>
+  </si>
+  <si>
+    <t>{581.0: 0.7155652648825779, 144.0: 0.024922120708030387, 303.0: 0.08637577916295637}</t>
   </si>
   <si>
     <t>{582.0: 1.0}</t>
@@ -1042,7 +1042,7 @@
     <t>{584.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 1.0, 434.0: 0.019332161687170474}</t>
+    <t>{585.0: 1.0, 434.0: 0.017354719957927953}</t>
   </si>
   <si>
     <t>{586.0: 1.0}</t>
@@ -1051,7 +1051,7 @@
     <t>{587.0: 0.5913779423432954}</t>
   </si>
   <si>
-    <t>{81.0: 0.21493016932394018, 172.0: 0.05718523401450231, 507.0: 0.2003813882532418}</t>
+    <t>{81.0: 0.21691405762754148, 172.0: 0.057871914609739825, 507.0: 0.20150341336196978}</t>
   </si>
   <si>
     <t>{589.0: 1.0}</t>
@@ -1066,22 +1066,22 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.702206136868215}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.6549268314805103}</t>
-  </si>
-  <si>
-    <t>{276.0: 0.3344527137411508}</t>
+    <t>{593.0: 0.702523634351758}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.6553396520161082}</t>
+  </si>
+  <si>
+    <t>{276.0: 0.33493910198145793}</t>
   </si>
   <si>
     <t>{597.0: 1.0}</t>
   </si>
   <si>
-    <t>{598.0: 1.0, 599.0: 0.007402846990770414}</t>
-  </si>
-  <si>
-    <t>{599.0: 0.9900333791340854}</t>
+    <t>{598.0: 1.0, 599.0: 0.007619574305512909}</t>
+  </si>
+  <si>
+    <t>{599.0: 0.9897425992634663}</t>
   </si>
   <si>
     <t>{600.0: 1.0}</t>
@@ -1090,19 +1090,19 @@
     <t>{601.0: 1.0}</t>
   </si>
   <si>
-    <t>{602.0: 0.8869016307206733}</t>
+    <t>{602.0: 0.9233921254231249}</t>
   </si>
   <si>
     <t>{603.0: 0.518114955053119, 617.0: 0.09849118574152624}</t>
   </si>
   <si>
-    <t>{604.0: 0.14485624628954288, 837.0: 0.006164424963931088, 922.0: 0.018158236057068743}</t>
+    <t>{604.0: 0.14655245526248833, 837.0: 0.006400077612415044, 922.0: 0.018158236057068743}</t>
   </si>
   <si>
     <t>{605.0: 1.0}</t>
   </si>
   <si>
-    <t>{606.0: 0.9985494106980961}</t>
+    <t>{606.0: 0.9985660512636674}</t>
   </si>
   <si>
     <t>{607.0: 1.0}</t>
@@ -1120,16 +1120,16 @@
     <t>{611.0: 1.0}</t>
   </si>
   <si>
-    <t>{612.0: 1.0, 613.0: 0.014371407148212946}</t>
-  </si>
-  <si>
-    <t>{613.0: 0.985628592851787}</t>
-  </si>
-  <si>
-    <t>{305.0: 0.20773276863173715, 615.0: 0.0059104663291704935, 698.0: 0.0025583125699411907, 832.0: 0.1194793119479312}</t>
-  </si>
-  <si>
-    <t>{615.0: 0.8527489476030984}</t>
+    <t>{612.0: 1.0, 613.0: 0.013974117504101099}</t>
+  </si>
+  <si>
+    <t>{613.0: 0.986025882495899}</t>
+  </si>
+  <si>
+    <t>{305.0: 0.20784635363269768, 615.0: 0.005625267681682604, 698.0: 0.0025780586288422277, 832.0: 0.12134088762983947}</t>
+  </si>
+  <si>
+    <t>{615.0: 0.853009340952926}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1138,10 +1138,10 @@
     <t>{617.0: 0.8099047619047619}</t>
   </si>
   <si>
-    <t>{246.0: 0.2834118967740765, 789.0: 0.004033396617945142}</t>
-  </si>
-  <si>
-    <t>{619.0: 1.0, 887.0: 0.00853814569167461}</t>
+    <t>{246.0: 0.28320684486708353, 789.0: 0.004033038154791923}</t>
+  </si>
+  <si>
+    <t>{619.0: 1.0, 887.0: 0.008402432138969577}</t>
   </si>
   <si>
     <t>{620.0: 1.0, 785.0: 0.005487623060981204}</t>
@@ -1153,7 +1153,7 @@
     <t>{622.0: 1.0}</t>
   </si>
   <si>
-    <t>{623.0: 0.9992374561537288}</t>
+    <t>{623.0: 0.9992354740061162}</t>
   </si>
   <si>
     <t>{624.0: 1.0}</t>
@@ -1180,7 +1180,7 @@
     <t>{629.0: 0.6539283171136957}</t>
   </si>
   <si>
-    <t>{251.0: 0.5533106669620003}</t>
+    <t>{251.0: 0.535961341134746}</t>
   </si>
   <si>
     <t>{226.0: 0.06961119065976429, 729.0: 0.053167325649869604}</t>
@@ -1204,13 +1204,13 @@
     <t>{680.0: 1.0}</t>
   </si>
   <si>
-    <t>{681.0: 0.8661946752127402}</t>
+    <t>{681.0: 0.8661825512520718}</t>
   </si>
   <si>
     <t>{682.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.14134058606773117, 698.0: 0.02529103651019675, 751.0: 0.18454837230628152}</t>
+    <t>{615.0: 0.14136539136539136, 698.0: 0.025307789715560587, 751.0: 0.18454837230628152}</t>
   </si>
   <si>
     <t>{684.0: 1.0}</t>
@@ -1219,10 +1219,10 @@
     <t>{685.0: 1.0}</t>
   </si>
   <si>
-    <t>{686.0: 0.5239710306890218}</t>
-  </si>
-  <si>
-    <t>{687.0: 1.0, 534.0: 0.04730317529360591}</t>
+    <t>{686.0: 0.5242522882871485}</t>
+  </si>
+  <si>
+    <t>{687.0: 1.0, 534.0: 0.04461080914777971}</t>
   </si>
   <si>
     <t>{688.0: 1.0}</t>
@@ -1243,19 +1243,19 @@
     <t>{693.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.434887333236689, 165.0: 0.03846626520830773, 433.0: 0.008276358402302987}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.10551084435554689, 857.0: 0.0961021239620225}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9970840758140288, 492.0: 0.006171080812201368}</t>
+    <t>{86.0: 0.4367505323639863, 165.0: 0.03858956972013315, 433.0: 0.00832729905865315}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.10678805148986302, 857.0: 0.09616585708363125}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9970049916805325, 492.0: 0.006134240441043854}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.972150650919862}</t>
+    <t>{698.0: 0.9721141516555971}</t>
   </si>
   <si>
     <t>{700.0: 1.0}</t>
@@ -1264,13 +1264,13 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.7614693421278149}</t>
-  </si>
-  <si>
-    <t>{703.0: 0.716503881793138}</t>
-  </si>
-  <si>
-    <t>{704.0: 1.0, 481.0: 0.006142506142506142}</t>
+    <t>{702.0: 0.7614673982117521}</t>
+  </si>
+  <si>
+    <t>{703.0: 0.741020361473347}</t>
+  </si>
+  <si>
+    <t>{704.0: 1.0, 481.0: 0.006157635467980296}</t>
   </si>
   <si>
     <t>{705.0: 1.0}</t>
@@ -1279,28 +1279,28 @@
     <t>{706.0: 1.0}</t>
   </si>
   <si>
-    <t>{707.0: 0.9947004269100544}</t>
-  </si>
-  <si>
-    <t>{580.0: 0.21364068587520363}</t>
+    <t>{707.0: 0.9945071711931645}</t>
+  </si>
+  <si>
+    <t>{580.0: 0.21430295186114953}</t>
   </si>
   <si>
     <t>{729.0: 0.8205940003572835}</t>
   </si>
   <si>
-    <t>{730.0: 0.7001174626595719, 289.0: 0.16219653436858122}</t>
-  </si>
-  <si>
-    <t>{731.0: 0.5093056179396515}</t>
+    <t>{730.0: 0.6993717955083192, 289.0: 0.16202378531692033}</t>
+  </si>
+  <si>
+    <t>{731.0: 0.5242772338343619}</t>
   </si>
   <si>
     <t>{732.0: 1.0}</t>
   </si>
   <si>
-    <t>{733.0: 0.9184447605500237, 147.0: 0.06729859340942819}</t>
-  </si>
-  <si>
-    <t>{888.0: 0.29224517229790864, 73.0: 0.00143000143000143}</t>
+    <t>{733.0: 0.923876963930073, 147.0: 0.07321451931654152}</t>
+  </si>
+  <si>
+    <t>{888.0: 0.2922406305175582, 73.0: 0.0014347202295552368}</t>
   </si>
   <si>
     <t>{735.0: 0.6435926773455377}</t>
@@ -1309,25 +1309,25 @@
     <t>{736.0: 1.0}</t>
   </si>
   <si>
-    <t>{737.0: 1.0, 223.0: 0.019194756554307114, 428.0: 0.0037142610348103997}</t>
-  </si>
-  <si>
-    <t>{738.0: 0.9961277831558567}</t>
+    <t>{737.0: 1.0, 223.0: 0.01906090190609019, 428.0: 0.0037142610348103997}</t>
+  </si>
+  <si>
+    <t>{738.0: 0.9961240310077519}</t>
   </si>
   <si>
     <t>{739.0: 1.0}</t>
   </si>
   <si>
-    <t>{740.0: 1.0, 789.0: 0.1669884875968601, 246.0: 0.009385809539203704}</t>
-  </si>
-  <si>
-    <t>{741.0: 0.9931837546151662, 90.0: 0.033413245796262994, 789.0: 0.001339605819551074, 246.0: 0.0046834341753414985}</t>
+    <t>{740.0: 1.0, 789.0: 0.1669737704553179, 246.0: 0.00937818612090443}</t>
+  </si>
+  <si>
+    <t>{741.0: 0.9931837546151662, 90.0: 0.033413245796262994, 789.0: 0.0013426240374213674, 246.0: 0.004680023247519948}</t>
   </si>
   <si>
     <t>{743.0: 1.0}</t>
   </si>
   <si>
-    <t>{147.0: 0.02858764937119231, 703.0: 0.06822947621023358}</t>
+    <t>{147.0: 0.026817332075437603, 703.0: 0.06305846238191437}</t>
   </si>
   <si>
     <t>{746.0: 1.0, 691.0: 0.014129443938012761}</t>
@@ -1339,7 +1339,7 @@
     <t>{748.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.14699280494761358, 476.0: 0.15811907053485494, 595.0: 0.01078339685864043, 534.0: 0.051506884489296745}</t>
+    <t>{298.0: 0.14877215057145854, 476.0: 0.15970004166088042, 595.0: 0.01082528839563314, 534.0: 0.054145179905543954}</t>
   </si>
   <si>
     <t>{750.0: 1.0}</t>
@@ -1348,7 +1348,7 @@
     <t>{751.0: 0.8154516276937185}</t>
   </si>
   <si>
-    <t>{580.0: 0.13336110913443233}</t>
+    <t>{580.0: 0.1337032552347893}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1363,7 +1363,7 @@
     <t>{756.0: 1.0}</t>
   </si>
   <si>
-    <t>{147.0: 0.03267105747709044, 703.0: 0.07797525112864309}</t>
+    <t>{147.0: 0.02094442063149921, 703.0: 0.04924885729822669}</t>
   </si>
   <si>
     <t>{758.0: 0.7042549992482333}</t>
@@ -1372,19 +1372,19 @@
     <t>{759.0: 1.0}</t>
   </si>
   <si>
-    <t>{760.0: 1.0, 761.0: 0.05816302294063936}</t>
-  </si>
-  <si>
-    <t>{761.0: 0.9418369770593606}</t>
-  </si>
-  <si>
-    <t>{141.0: 0.059558272455346666, 762.0: 0.0615630433760985}</t>
+    <t>{760.0: 1.0, 761.0: 0.05807537591257333}</t>
+  </si>
+  <si>
+    <t>{761.0: 0.9419246240874267}</t>
+  </si>
+  <si>
+    <t>{141.0: 0.059563655890458374, 762.0: 0.0615630433760985}</t>
   </si>
   <si>
     <t>{763.0: 1.0}</t>
   </si>
   <si>
-    <t>{764.0: 0.8271316181160961}</t>
+    <t>{764.0: 0.8273298785149945}</t>
   </si>
   <si>
     <t>{765.0: 1.0}</t>
@@ -1393,7 +1393,7 @@
     <t>{766.0: 1.0}</t>
   </si>
   <si>
-    <t>{767.0: 0.9924251679902261}</t>
+    <t>{767.0: 0.9930648769574945}</t>
   </si>
   <si>
     <t>{768.0: 1.0}</t>
@@ -1408,10 +1408,10 @@
     <t>{771.0: 1.0}</t>
   </si>
   <si>
-    <t>{772.0: 1.0, 493.0: 0.007941760423560556, 108.0: 6.975085159753668e-05, 144.0: 5.729160314791915e-07}</t>
-  </si>
-  <si>
-    <t>{773.0: 1.0, 147.0: 0.043480621004377044, 703.0: 0.10377418436556804}</t>
+    <t>{772.0: 1.0, 493.0: 0.007917308115240818, 108.0: 6.949696522493627e-05, 144.0: 5.708178695335117e-07}</t>
+  </si>
+  <si>
+    <t>{773.0: 1.0, 147.0: 0.04633081456585645, 703.0: 0.10894260171765559}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1423,7 +1423,7 @@
     <t>{777.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.9994031988541417, 171.0: 0.01740033043861241, 184.0: 0.0020208824520040417, 593.0: 0.0009677776021886674}</t>
+    <t>{778.0: 0.9994188749418875, 171.0: 0.017201854323422337, 184.0: 0.0020373514431239388, 593.0: 0.0009684790495434398}</t>
   </si>
   <si>
     <t>{779.0: 1.0}</t>
@@ -1435,7 +1435,7 @@
     <t>{781.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.7409374650734597}</t>
+    <t>{782.0: 0.7360736129578894}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
@@ -1450,37 +1450,37 @@
     <t>{204.0: 0.24960611992037463}</t>
   </si>
   <si>
-    <t>{277.0: 0.05003589790342541, 180.0: 0.001001540299018768}</t>
+    <t>{277.0: 0.05089772853972156, 180.0: 0.0016706242288055213}</t>
   </si>
   <si>
     <t>{788.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 0.824552806641099, 246.0: 0.04634508467932692}</t>
+    <t>{789.0: 0.824558604706184, 246.0: 0.0463118491092418}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
   </si>
   <si>
-    <t>{832.0: 0.8805206880520688}</t>
+    <t>{832.0: 0.8786591123701605}</t>
   </si>
   <si>
     <t>{833.0: 1.0}</t>
   </si>
   <si>
-    <t>{834.0: 0.5258853831294269}</t>
-  </si>
-  <si>
-    <t>{835.0: 0.9951622083096187, 836.0: 0.014775977121067683}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9852240228789323, 835.0: 0.004837791690381332}</t>
-  </si>
-  <si>
-    <t>{837.0: 0.9483223333356342, 486.0: 0.3182247403210576}</t>
-  </si>
-  <si>
-    <t>{838.0: 1.0, 19.0: 0.13507462686567165, 423.0: 0.0036780614452617912}</t>
+    <t>{834.0: 0.5258548522119905}</t>
+  </si>
+  <si>
+    <t>{835.0: 0.9949748743718593, 836.0: 0.014039855072463768}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9859601449275363, 835.0: 0.005025125628140704}</t>
+  </si>
+  <si>
+    <t>{837.0: 0.9469677938066939, 486.0: 0.3182247403210576}</t>
+  </si>
+  <si>
+    <t>{838.0: 1.0, 19.0: 0.13507462686567165, 423.0: 0.0036653730056058647}</t>
   </si>
   <si>
     <t>{839.0: 1.0}</t>
@@ -1495,10 +1495,10 @@
     <t>{842.0: 1.0}</t>
   </si>
   <si>
-    <t>{264.0: 0.3164425011126853}</t>
-  </si>
-  <si>
-    <t>{227.0: 0.34034653465346537, 686.0: 0.016503024588630608}</t>
+    <t>{264.0: 0.3175020990619109}</t>
+  </si>
+  <si>
+    <t>{227.0: 0.3808864265927978, 686.0: 0.016444551075506544}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1510,22 +1510,22 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 1.0, 707.0: 0.005299573089945532}</t>
+    <t>{848.0: 1.0, 707.0: 0.00549282880683552}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{180.0: 0.025079647574191614, 277.0: 0.06405179667375985}</t>
-  </si>
-  <si>
-    <t>{851.0: 1.0, 7.0: 0.014550392860607237}</t>
+    <t>{180.0: 0.006030188868412748, 277.0: 0.0641831147882809}</t>
+  </si>
+  <si>
+    <t>{851.0: 1.0, 7.0: 0.014697236919459141}</t>
   </si>
   <si>
     <t>{852.0: 1.0}</t>
   </si>
   <si>
-    <t>{853.0: 1.0, 91.0: 0.00033310405391959646, 92.0: 1.6074545008734487e-07}</t>
+    <t>{853.0: 1.0, 91.0: 0.00032893191109440345, 92.0: 1.4919327550235536e-07}</t>
   </si>
   <si>
     <t>{854.0: 1.0, 976.0: 0.058602554470323066}</t>
@@ -1534,13 +1534,13 @@
     <t>{855.0: 1.0}</t>
   </si>
   <si>
-    <t>{146.0: 0.30546964024092466}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.8990345785432283}</t>
-  </si>
-  <si>
-    <t>{858.0: 1.0, 543.0: 0.011648711492656144}</t>
+    <t>{146.0: 0.2650049428046886}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.8989726414753124}</t>
+  </si>
+  <si>
+    <t>{858.0: 1.0, 543.0: 0.011652059107576513}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
@@ -1555,7 +1555,7 @@
     <t>{780.0: 0.16666666666666666}</t>
   </si>
   <si>
-    <t>{863.0: 1.0, 10.0: 0.010316428261811877}</t>
+    <t>{863.0: 1.0, 10.0: 0.010404826440500132}</t>
   </si>
   <si>
     <t>{885.0: 1.0}</t>
@@ -1564,10 +1564,10 @@
     <t>{886.0: 1.0}</t>
   </si>
   <si>
-    <t>{887.0: 0.7855343805393834, 834.0: 0.0003853383375844337}</t>
-  </si>
-  <si>
-    <t>{888.0: 0.7077548277020914}</t>
+    <t>{887.0: 0.784559191681481, 834.0: 0.0004049256727081552}</t>
+  </si>
+  <si>
+    <t>{888.0: 0.7077593694824418}</t>
   </si>
   <si>
     <t>{889.0: 1.0}</t>
@@ -1591,10 +1591,10 @@
     <t>{895.0: 1.0}</t>
   </si>
   <si>
-    <t>{896.0: 1.0, 897.0: 0.02499643873816452}</t>
-  </si>
-  <si>
-    <t>{897.0: 0.7138830138447109}</t>
+    <t>{896.0: 1.0, 897.0: 0.024944406380148505}</t>
+  </si>
+  <si>
+    <t>{897.0: 0.7146079196533135}</t>
   </si>
   <si>
     <t>{905.0: 1.0}</t>
@@ -1603,10 +1603,10 @@
     <t>{906.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.044733262807919, 930.0: 0.09603434816167061, 404.0: 0.009275575382602387}</t>
-  </si>
-  <si>
-    <t>{909.0: 0.41649529506959976}</t>
+    <t>{782.0: 0.044733262807919, 930.0: 0.09529245920638413, 404.0: 0.009293093466910127}</t>
+  </si>
+  <si>
+    <t>{909.0: 0.4137347020225024}</t>
   </si>
   <si>
     <t>{910.0: 0.8165218347816522}</t>
@@ -1621,10 +1621,10 @@
     <t>{914.0: 0.9747840298855942}</t>
   </si>
   <si>
-    <t>{915.0: 1.0, 171.0: 0.23926214182338407, 420.0: 0.13447613311335305}</t>
-  </si>
-  <si>
-    <t>{534.0: 0.22372587767191515}</t>
+    <t>{915.0: 1.0, 171.0: 0.2366124934523391, 420.0: 0.135890820516969}</t>
+  </si>
+  <si>
+    <t>{534.0: 0.21235609808836542}</t>
   </si>
   <si>
     <t>{917.0: 0.84180271253553}</t>
@@ -1633,16 +1633,16 @@
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.2231709358781182}</t>
+    <t>{298.0: 0.2231833910034602}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
   </si>
   <si>
-    <t>{921.0: 1.0, 686.0: 0.06491606204672862}</t>
-  </si>
-  <si>
-    <t>{922.0: 0.9169191409470998}</t>
+    <t>{921.0: 1.0, 686.0: 0.06468367522224322}</t>
+  </si>
+  <si>
+    <t>{922.0: 0.9181241221421323}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1651,7 +1651,7 @@
     <t>{924.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.22966962560285759, 762.0: 0.2374004574051698}</t>
+    <t>{141.0: 0.22969038529711314, 762.0: 0.2374004574051698}</t>
   </si>
   <si>
     <t>{926.0: 1.0}</t>
@@ -1660,13 +1660,13 @@
     <t>{927.0: 1.0}</t>
   </si>
   <si>
-    <t>{3.0: 0.2986245474636466, 418.0: 0.12031725784494546, 922.0: 0.0649226229958314}</t>
-  </si>
-  <si>
-    <t>{929.0: 1.0, 930.0: 0.5022703425118055}</t>
-  </si>
-  <si>
-    <t>{930.0: 0.33185559147898397}</t>
+    <t>{3.0: 0.3050371432060981, 418.0: 0.12063254298053716, 922.0: 0.06371764180079881}</t>
+  </si>
+  <si>
+    <t>{929.0: 1.0, 930.0: 0.5060493433210941}</t>
+  </si>
+  <si>
+    <t>{930.0: 0.3187987500998975}</t>
   </si>
   <si>
     <t>{931.0: 0.9138912855910267}</t>
@@ -1675,10 +1675,10 @@
     <t>{932.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.15247765896390925, 702.0: 0.19452922961350527}</t>
-  </si>
-  <si>
-    <t>{934.0: 1.0, 5.0: 0.01186744290192566}</t>
+    <t>{249.0: 0.15247765896390925, 702.0: 0.19453117352956792}</t>
+  </si>
+  <si>
+    <t>{934.0: 1.0, 5.0: 0.01182244033013607}</t>
   </si>
   <si>
     <t>{935.0: 0.7071088165210484}</t>
@@ -1687,16 +1687,16 @@
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.24877521526153046, 171.0: 0.0009896642317907222}</t>
-  </si>
-  <si>
-    <t>{910.0: 0.13926168166609582, 497.0: 0.024895113952272806, 731.0: 0.06374124801679136}</t>
+    <t>{593.0: 0.24857342310263736, 171.0: 0.000986460766072281}</t>
+  </si>
+  <si>
+    <t>{910.0: 0.13778294444063413, 497.0: 0.02472433810645906, 731.0: 0.05182148121433188}</t>
   </si>
   <si>
     <t>{13.0: 0.27403661993411477}</t>
   </si>
   <si>
-    <t>{785.0: 0.13213207501312954, 206.0: 0.1472611464968153}</t>
+    <t>{785.0: 0.1284154307396763, 206.0: 0.1472611464968153}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
@@ -1711,7 +1711,7 @@
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 1.0, 975.0: 0.002119815668202765}</t>
+    <t>{971.0: 1.0, 975.0: 0.002163077212451801}</t>
   </si>
   <si>
     <t>{139.0: 0.32523553473386324}</t>
@@ -1723,7 +1723,7 @@
     <t>{545.0: 0.2950640850831743}</t>
   </si>
   <si>
-    <t>{975.0: 0.9970583576792547}</t>
+    <t>{975.0: 0.9970151317640227}</t>
   </si>
   <si>
     <t>{976.0: 0.941397445529677}</t>
@@ -1732,7 +1732,7 @@
     <t>{977.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.20807704507147204}</t>
+    <t>{782.0: 0.21279960670180362}</t>
   </si>
   <si>
     <t>{979.0: 1.0}</t>
@@ -1744,16 +1744,16 @@
     <t>{981.0: 1.0, 431.0: 0.14127371782829232}</t>
   </si>
   <si>
-    <t>{989.0: 1.0, 249.0: 0.005706963499308707, 495.0: 0.06982248520710059}</t>
-  </si>
-  <si>
-    <t>{990.0: 1.0, 599.0: 0.0025637738751442124}</t>
-  </si>
-  <si>
-    <t>{497.0: 0.23205629389668767, 910.0: 0.044216483552252, 731.0: 0.020238258010499322}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.2821816179204645, 729.0: 0.12568021934125279}</t>
+    <t>{989.0: 1.0, 249.0: 0.005742824131710109, 495.0: 0.07077735124760076}</t>
+  </si>
+  <si>
+    <t>{990.0: 1.0, 599.0: 0.002637826431020839}</t>
+  </si>
+  <si>
+    <t>{497.0: 0.2333073567882517, 910.0: 0.04569522077771368, 731.0: 0.017186408918248394}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.28218383273501624, 729.0: 0.12568120579239273}</t>
   </si>
   <si>
     <t>{486.0: 0.8813719916619288, 837.0: 0.11862800833807091}</t>
@@ -1774,7 +1774,7 @@
     <t>{13.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 0.9919299714123916, 178.0: 0.000641088019133058, 623.0: 0.001614987080103359, 696.0: 0.005721431161519683, 492.0: 9.252232685240913e-05}</t>
+    <t>{14.0: 0.9919351812436294, 178.0: 0.000640674146945109, 623.0: 0.0016139444803098773, 696.0: 0.005717900736820557, 492.0: 9.229939229500004e-05}</t>
   </si>
   <si>
     <t>{17.0: 1.0}</t>
@@ -1783,13 +1783,13 @@
     <t>{19.0: 0.6241540864133264, 636.0: 0.37584591358667363}</t>
   </si>
   <si>
-    <t>{34.0: 0.8740791396589427, 78.0: 0.1259208603410571}</t>
-  </si>
-  <si>
-    <t>{46.0: 0.8535479946204908, 90.0: 0.06163253957874768, 246.0: 0.05698406038140837, 681.0: 0.010181063660729604, 741.0: 0.00655999855195493, 789.0: 0.011094343206668732}</t>
-  </si>
-  <si>
-    <t>{48.0: 0.9182990922121357, 443.0: 0.07303779428966833, 291.0: 0.008663113498195959}</t>
+    <t>{34.0: 0.8740791396589428, 78.0: 0.1259208603410571}</t>
+  </si>
+  <si>
+    <t>{46.0: 0.8535479946204907, 90.0: 0.06163253957874768, 246.0: 0.05698330500849371, 681.0: 0.010181063660729609, 741.0: 0.006559998551954927, 789.0: 0.011095098579583396}</t>
+  </si>
+  <si>
+    <t>{48.0: 0.9182990922121357, 443.0: 0.07303779428966835, 291.0: 0.008663113498195959}</t>
   </si>
   <si>
     <t>{834.0: 1.0}</t>
@@ -1807,7 +1807,7 @@
     <t>{78.0: 1.0}</t>
   </si>
   <si>
-    <t>{764.0: 0.9332690453230472, 147.0: 0.033365477338476376, 703.0: 0.033365477338476376}</t>
+    <t>{764.0: 0.933269045323047, 147.0: 0.033365477338476376, 703.0: 0.033365477338476376}</t>
   </si>
   <si>
     <t>{81.0: 1.0}</t>
@@ -1834,10 +1834,10 @@
     <t>{543.0: 0.6704760598381458, 86.0: 0.32952394016185427}</t>
   </si>
   <si>
-    <t>{108.0: 0.9879188511511287, 144.0: 0.012081148848871666}</t>
-  </si>
-  <si>
-    <t>{109.0: 0.9924710641645129, 110.0: 0.007528935835487131}</t>
+    <t>{108.0: 0.9879188511511281, 144.0: 0.012081148848871666}</t>
+  </si>
+  <si>
+    <t>{109.0: 0.9924710641645128, 110.0: 0.007528935835487133}</t>
   </si>
   <si>
     <t>{110.0: 1.0}</t>
@@ -1849,7 +1849,7 @@
     <t>{141.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.9420988600009007, 762.0: 0.057901139999098815}</t>
+    <t>{141.0: 0.9421837681943133, 762.0: 0.057816231805686964}</t>
   </si>
   <si>
     <t>{142.0: 1.0}</t>
@@ -1861,10 +1861,10 @@
     <t>{146.0: 1.0}</t>
   </si>
   <si>
-    <t>{147.0: 0.8973738751910919, 764.0: 0.038649094051082036, 733.0: 0.06397703075782603}</t>
-  </si>
-  <si>
-    <t>{152.0: 0.9990500316656113, 975.0: 0.0009499683343888536}</t>
+    <t>{147.0: 0.8973738751910918, 764.0: 0.03864909405108203, 733.0: 0.06397703075782603}</t>
+  </si>
+  <si>
+    <t>{152.0: 0.999050031665611, 975.0: 0.0009499683343888537}</t>
   </si>
   <si>
     <t>{162.0: 1.0}</t>
@@ -1882,7 +1882,7 @@
     <t>{173.0: 1.0}</t>
   </si>
   <si>
-    <t>{174.0: 0.5269650010097836, 534.0: 0.47303499899021645}</t>
+    <t>{174.0: 0.529134601041196, 534.0: 0.4708653989588041}</t>
   </si>
   <si>
     <t>{562.0: 1.0}</t>
@@ -1894,13 +1894,13 @@
     <t>{179.0: 0.9123261843035585, 180.0: 0.08767381569644118}</t>
   </si>
   <si>
-    <t>{180.0: 0.9746846160358988, 410.0: 0.02531538396410126}</t>
+    <t>{180.0: 0.9746846160358987, 410.0: 0.025315383964101254}</t>
   </si>
   <si>
     <t>{182.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 0.6198636811651962, 171.0: 0.16743580614272274, 593.0: 0.21101587657348264, 778.0: 0.0016846361185983828}</t>
+    <t>{184.0: 0.619581107396017, 171.0: 0.16755953700304693, 593.0: 0.21116098603571884, 778.0: 0.0016983695652173913}</t>
   </si>
   <si>
     <t>{185.0: 1.0}</t>
@@ -1909,7 +1909,7 @@
     <t>{203.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 0.9946148092744952, 857.0: 0.005385190725504862}</t>
+    <t>{204.0: 0.9946682464454976, 857.0: 0.00533175355450237}</t>
   </si>
   <si>
     <t>{206.0: 0.8527388535031846, 785.0: 0.1472611464968153}</t>
@@ -1918,7 +1918,7 @@
     <t>{211.0: 1.0}</t>
   </si>
   <si>
-    <t>{212.0: 0.47731710390736753, 681.0: 0.5226828960926323}</t>
+    <t>{212.0: 0.4773171039073674, 681.0: 0.5226828960926323}</t>
   </si>
   <si>
     <t>{897.0: 1.0}</t>
@@ -1930,13 +1930,13 @@
     <t>{217.0: 1.0}</t>
   </si>
   <si>
-    <t>{218.0: 0.7815333823680913, 409.0: 0.2184666176319087}</t>
+    <t>{218.0: 0.7813754377265826, 409.0: 0.21862456227341748}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
   </si>
   <si>
-    <t>{221.0: 0.9001536098310291, 999.0: 0.0998463901689708}</t>
+    <t>{221.0: 0.9001536098310294, 999.0: 0.09984639016897082}</t>
   </si>
   <si>
     <t>{223.0: 1.0}</t>
@@ -1948,7 +1948,7 @@
     <t>{227.0: 1.0}</t>
   </si>
   <si>
-    <t>{228.0: 0.9923809523809523, 738.0: 0.00761904761904762}</t>
+    <t>{228.0: 0.9923809523809524, 738.0: 0.00761904761904762}</t>
   </si>
   <si>
     <t>{595.0: 1.0}</t>
@@ -1975,13 +1975,13 @@
     <t>{253.0: 1.0}</t>
   </si>
   <si>
-    <t>{255.0: 0.8887904297740361, 973.0: 0.10014817456462068, 494.0: 0.011061395661342984}</t>
+    <t>{255.0: 0.888790429774036, 973.0: 0.1001735060050665, 494.0: 0.011036064220897158}</t>
   </si>
   <si>
     <t>{264.0: 1.0}</t>
   </si>
   <si>
-    <t>{834.0: 0.28869996457669145, 887.0: 0.7113000354233082}</t>
+    <t>{834.0: 0.28869996457669145, 887.0: 0.7113000354233089}</t>
   </si>
   <si>
     <t>{268.0: 1.0}</t>
@@ -1996,7 +1996,7 @@
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9637501241434107, 180.0: 0.03624987585658953}</t>
+    <t>{277.0: 0.9637501241434101, 180.0: 0.036249875856589536}</t>
   </si>
   <si>
     <t>{278.0: 0.9590864276721839, 767.0: 0.016295795701747166, 147.0: 0.012308888313034465, 703.0: 0.012308888313034465}</t>
@@ -2014,7 +2014,7 @@
     <t>{291.0: 1.0}</t>
   </si>
   <si>
-    <t>{292.0: 0.7970762269404802, 139.0: 0.2029237730595196}</t>
+    <t>{292.0: 0.7970762269404801, 139.0: 0.2029237730595196}</t>
   </si>
   <si>
     <t>{298.0: 1.0}</t>
@@ -2035,31 +2035,31 @@
     <t>{587.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 0.7503814257603633, 204.0: 0.2496185742396367}</t>
-  </si>
-  <si>
-    <t>{310.0: 0.8499271491015055, 887.0: 0.15007285089849443}</t>
+    <t>{309.0: 0.750786998193937, 204.0: 0.24921300180606287}</t>
+  </si>
+  <si>
+    <t>{310.0: 0.8503631961259079, 887.0: 0.149636803874092}</t>
   </si>
   <si>
     <t>{311.0: 0.9817357775823581, 917.0: 0.018264222417641886}</t>
   </si>
   <si>
-    <t>{315.0: 0.9926840420667581, 217.0: 0.007315957933241884}</t>
-  </si>
-  <si>
-    <t>{400.0: 0.9681191395477113, 897.0: 0.03188086045228902}</t>
+    <t>{315.0: 0.9926840420667583, 217.0: 0.007315957933241884}</t>
+  </si>
+  <si>
+    <t>{400.0: 0.9681191395477111, 897.0: 0.03188086045228902}</t>
   </si>
   <si>
     <t>{401.0: 1.0}</t>
   </si>
   <si>
-    <t>{402.0: 0.9895904270843467, 476.0: 0.008804455271191234, 595.0: 0.0016051176444620411}</t>
+    <t>{402.0: 0.9895904270843466, 476.0: 0.008805596079751619, 595.0: 0.0016039768359016567}</t>
   </si>
   <si>
     <t>{404.0: 1.0}</t>
   </si>
   <si>
-    <t>{405.0: 0.3656576480042861, 404.0: 0.6343423519957139}</t>
+    <t>{405.0: 0.35768535262206147, 404.0: 0.6423146473779385}</t>
   </si>
   <si>
     <t>{409.0: 1.0}</t>
@@ -2071,7 +2071,7 @@
     <t>{418.0: 1.0}</t>
   </si>
   <si>
-    <t>{419.0: 0.9852104664391353, 17.0: 0.014789533560864617}</t>
+    <t>{419.0: 0.9852607709750567, 17.0: 0.01473922902494331}</t>
   </si>
   <si>
     <t>{420.0: 1.0}</t>
@@ -2092,19 +2092,19 @@
     <t>{434.0: 1.0}</t>
   </si>
   <si>
-    <t>{441.0: 0.9886363636363635, 782.0: 0.011363636363636364}</t>
-  </si>
-  <si>
-    <t>{443.0: 0.8939655172413792, 291.0: 0.1060344827586207}</t>
-  </si>
-  <si>
-    <t>{476.0: 0.8458036984352776, 595.0: 0.15419630156472267}</t>
+    <t>{441.0: 0.9886363636363636, 782.0: 0.011363636363636364}</t>
+  </si>
+  <si>
+    <t>{443.0: 0.8939655172413793, 291.0: 0.1060344827586207}</t>
+  </si>
+  <si>
+    <t>{476.0: 0.8459132906894103, 595.0: 0.15408670931058996}</t>
   </si>
   <si>
     <t>{481.0: 1.0}</t>
   </si>
   <si>
-    <t>{483.0: 0.9609996213555473, 563.0: 0.03900037864445286}</t>
+    <t>{483.0: 0.9609996213555472, 563.0: 0.03900037864445286}</t>
   </si>
   <si>
     <t>{486.0: 0.881371991661929, 837.0: 0.1186280083380709}</t>
@@ -2122,7 +2122,7 @@
     <t>{492.0: 1.0}</t>
   </si>
   <si>
-    <t>{493.0: 0.9826319305277218, 108.0: 0.017158243239765756, 144.0: 0.00020982623251213314}</t>
+    <t>{493.0: 0.9826319305277221, 108.0: 0.017158243239765756, 144.0: 0.00020982623251213314}</t>
   </si>
   <si>
     <t>{494.0: 1.0}</t>
@@ -2131,28 +2131,28 @@
     <t>{495.0: 1.0}</t>
   </si>
   <si>
-    <t>{497.0: 0.8601619027150942, 321.0: 0.1398380972849058}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.9637501241434105, 180.0: 0.03624987585658953}</t>
+    <t>{497.0: 0.8695187165775401, 321.0: 0.1304812834224599}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.9637501241434099, 180.0: 0.03624987585658953}</t>
   </si>
   <si>
     <t>{534.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.3887955182072828, 702.0: 0.6112044817927171}</t>
+    <t>{249.0: 0.3887955182072831, 702.0: 0.6112044817927171}</t>
   </si>
   <si>
     <t>{507.0: 1.0}</t>
   </si>
   <si>
-    <t>{535.0: 0.9934522679825392, 71.0: 0.006547732017460619}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.8182233178124714, 837.0: 0.1817766821875285}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.16679169792448112, 185.0: 0.16654163540885222, 404.0: 0.16654163540885222, 930.0: 0.5001250312578145}</t>
+    <t>{535.0: 0.9934522679825394, 71.0: 0.006547732017460619}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.8183062602664716, 837.0: 0.18169373973352793}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.16679169792448112, 185.0: 0.16654163540885225, 404.0: 0.16654163540885225, 930.0: 0.5001250312578145}</t>
   </si>
   <si>
     <t>{542.0: 1.0}</t>
@@ -2164,13 +2164,13 @@
     <t>{545.0: 1.0}</t>
   </si>
   <si>
-    <t>{562.0: 0.9667784212130447, 211.0: 0.0332215787869552}</t>
+    <t>{562.0: 0.9667784212130448, 211.0: 0.0332215787869552}</t>
   </si>
   <si>
     <t>{563.0: 1.0}</t>
   </si>
   <si>
-    <t>{564.0: 0.9223519621587966, 565.0: 0.07764803784120333}</t>
+    <t>{564.0: 0.9246077855267295, 565.0: 0.07539221447327048}</t>
   </si>
   <si>
     <t>{565.0: 1.0}</t>
@@ -2182,7 +2182,7 @@
     <t>{580.0: 1.0}</t>
   </si>
   <si>
-    <t>{581.0: 0.8894713337125868, 144.0: 0.04651916384581355, 303.0: 0.06400950244159957}</t>
+    <t>{581.0: 0.8894713337125869, 144.0: 0.04651916384581355, 303.0: 0.06400950244159957}</t>
   </si>
   <si>
     <t>{758.0: 1.0}</t>
@@ -2203,10 +2203,10 @@
     <t>{599.0: 1.0}</t>
   </si>
   <si>
-    <t>{603.0: 0.8623827909542195, 617.0: 0.13761720904578048}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.7620095020848969, 837.0: 0.169288207838767, 922.0: 0.06870229007633588}</t>
+    <t>{603.0: 0.8619640387275243, 617.0: 0.1380359612724758}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.7626932134522454, 837.0: 0.1693456214992105, 922.0: 0.06796116504854369}</t>
   </si>
   <si>
     <t>{606.0: 1.0}</t>
@@ -2218,7 +2218,7 @@
     <t>{613.0: 1.0}</t>
   </si>
   <si>
-    <t>{305.0: 0.8292882465230433, 615.0: 0.019634578674665937, 698.0: 0.0109080992637033, 832.0: 0.14016907553858743}</t>
+    <t>{305.0: 0.8292882465230433, 615.0: 0.01963457867466594, 698.0: 0.0109080992637033, 832.0: 0.1401690755385874}</t>
   </si>
   <si>
     <t>{615.0: 1.0}</t>
@@ -2227,13 +2227,13 @@
     <t>{617.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.987024483063915, 789.0: 0.012975516936084949}</t>
-  </si>
-  <si>
-    <t>{619.0: 0.986706497386109, 887.0: 0.013293502613890963}</t>
-  </si>
-  <si>
-    <t>{620.0: 0.9954229530428885, 785.0: 0.004577046957111375}</t>
+    <t>{246.0: 0.9870235970064315, 789.0: 0.012976402993568508}</t>
+  </si>
+  <si>
+    <t>{619.0: 0.9866666666666667, 887.0: 0.013333333333333334}</t>
+  </si>
+  <si>
+    <t>{620.0: 0.9954229530428887, 785.0: 0.004577046957111375}</t>
   </si>
   <si>
     <t>{623.0: 1.0}</t>
@@ -2242,9 +2242,6 @@
     <t>{629.0: 1.0}</t>
   </si>
   <si>
-    <t>{603.0: 0.8623827909542197, 617.0: 0.13761720904578048}</t>
-  </si>
-  <si>
     <t>{226.0: 0.5, 729.0: 0.5}</t>
   </si>
   <si>
@@ -2254,22 +2251,22 @@
     <t>{681.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.5858845244989072, 698.0: 0.12135505202398524, 751.0: 0.2927604234771076}</t>
-  </si>
-  <si>
-    <t>{687.0: 0.7078576225654801, 534.0: 0.29214237743451976}</t>
+    <t>{615.0: 0.585884524498907, 698.0: 0.12135505202398524, 751.0: 0.2927604234771076}</t>
+  </si>
+  <si>
+    <t>{687.0: 0.7092245989304813, 534.0: 0.29077540106951866}</t>
   </si>
   <si>
     <t>{691.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.948814149805708, 165.0: 0.04194023850998258, 433.0: 0.00924561168430926}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.7258720104389738, 857.0: 0.2741279895610262}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9840861597813855, 492.0: 0.01591384021861437}</t>
+    <t>{86.0: 0.9488141498057081, 165.0: 0.04194023850998258, 433.0: 0.00924561168430926}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.7259705854114223, 857.0: 0.2740294145885776}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9841142490372271, 492.0: 0.015885750962772786}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -2281,7 +2278,7 @@
     <t>{703.0: 1.0}</t>
   </si>
   <si>
-    <t>{704.0: 0.9874529485570892, 481.0: 0.012547051442910916}</t>
+    <t>{704.0: 0.9874529485570893, 481.0: 0.012547051442910916}</t>
   </si>
   <si>
     <t>{707.0: 1.0}</t>
@@ -2290,43 +2287,43 @@
     <t>{729.0: 1.0}</t>
   </si>
   <si>
-    <t>{730.0: 0.8502549837737599, 289.0: 0.14974501622624015}</t>
-  </si>
-  <si>
-    <t>{733.0: 0.9015677890611087, 147.0: 0.09843221093889182}</t>
-  </si>
-  <si>
-    <t>{888.0: 0.994343891402715, 73.0: 0.005656108597285068}</t>
+    <t>{730.0: 0.8502549837737599, 289.0: 0.14974501622624017}</t>
+  </si>
+  <si>
+    <t>{733.0: 0.9015677890611088, 147.0: 0.0984322109388918}</t>
+  </si>
+  <si>
+    <t>{888.0: 0.9944567627494457, 73.0: 0.005543237250554324}</t>
   </si>
   <si>
     <t>{735.0: 1.0}</t>
   </si>
   <si>
-    <t>{737.0: 0.9266375545851528, 223.0: 0.03580786026200873, 428.0: 0.03755458515283843}</t>
+    <t>{737.0: 0.9279588336192109, 223.0: 0.03516295025728988, 428.0: 0.03687821612349914}</t>
   </si>
   <si>
     <t>{738.0: 1.0}</t>
   </si>
   <si>
-    <t>{740.0: 0.701123595505618, 789.0: 0.2817308042745055, 246.0: 0.017145600219876624}</t>
-  </si>
-  <si>
-    <t>{741.0: 0.8859583153113909, 90.0: 0.09275598362042739, 789.0: 0.0044006937901610544, 246.0: 0.016885007278020378}</t>
+    <t>{740.0: 0.701123595505618, 789.0: 0.2817500427902968, 246.0: 0.017126361704085165}</t>
+  </si>
+  <si>
+    <t>{741.0: 0.8859583153113908, 90.0: 0.09275598362042739, 789.0: 0.0044006937901610544, 246.0: 0.016885007278020378}</t>
   </si>
   <si>
     <t>{147.0: 0.5, 703.0: 0.5}</t>
   </si>
   <si>
-    <t>{746.0: 0.9899854627685352, 691.0: 0.010014537231465032}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.5626309174696271, 476.0: 0.2037440832007895, 595.0: 0.037144060913161095, 534.0: 0.19648093841642228}</t>
+    <t>{746.0: 0.9899854627685349, 691.0: 0.010014537231465032}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.5626309174696271, 476.0: 0.20377048267549683, 595.0: 0.037117661438453804, 534.0: 0.19648093841642228}</t>
   </si>
   <si>
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{754.0: 0.920008771078718, 917.0: 0.07999122892128212}</t>
+    <t>{754.0: 0.8492529563266306, 917.0: 0.15074704367336975}</t>
   </si>
   <si>
     <t>{760.0: 0.7957918248415948, 761.0: 0.20420817515840517}</t>
@@ -2335,7 +2332,7 @@
     <t>{761.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.9420988600009013, 762.0: 0.057901139999098815}</t>
+    <t>{141.0: 0.9421837681943133, 762.0: 0.05781623180568697}</t>
   </si>
   <si>
     <t>{764.0: 1.0}</t>
@@ -2344,13 +2341,13 @@
     <t>{767.0: 1.0}</t>
   </si>
   <si>
-    <t>{772.0: 0.9882429784454607, 493.0: 0.011552824787393206, 108.0: 0.00020172983560795798, 144.0: 2.46693153835297e-06}</t>
-  </si>
-  <si>
-    <t>{773.0: 0.8230245634803199, 147.0: 0.08848771825984016, 703.0: 0.08848771825984016}</t>
-  </si>
-  <si>
-    <t>{778.0: 0.9784971368470258, 171.0: 0.019400059612387836, 184.0: 0.0004353696538871635, 593.0: 0.0016674338866991749}</t>
+    <t>{772.0: 0.9882429784454606, 493.0: 0.011552824787393206, 108.0: 0.00020172983560795787, 144.0: 2.46693153835297e-06}</t>
+  </si>
+  <si>
+    <t>{773.0: 0.8230245634803196, 147.0: 0.08848771825984017, 703.0: 0.08848771825984017}</t>
+  </si>
+  <si>
+    <t>{778.0: 0.9790504383468064, 171.0: 0.018900952703514936, 184.0: 0.0004239793978974138, 593.0: 0.0016246295517813182}</t>
   </si>
   <si>
     <t>{780.0: 1.0}</t>
@@ -2365,34 +2362,34 @@
     <t>{204.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9637501241434103, 180.0: 0.03624987585658953}</t>
-  </si>
-  <si>
-    <t>{789.0: 0.9426331421214654, 246.0: 0.05736685787853457}</t>
+    <t>{277.0: 0.96375012414341, 180.0: 0.03624987585658952}</t>
+  </si>
+  <si>
+    <t>{789.0: 0.9426975115915948, 246.0: 0.05730248840840526}</t>
   </si>
   <si>
     <t>{832.0: 1.0}</t>
   </si>
   <si>
-    <t>{835.0: 0.9912131519274376, 836.0: 0.008786848072562359}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9918426103646834, 835.0: 0.008157389635316698}</t>
-  </si>
-  <si>
-    <t>{837.0: 0.9689657749414815, 486.0: 0.03103422505851864}</t>
-  </si>
-  <si>
-    <t>{838.0: 0.9032978861255628, 19.0: 0.08895370913423661, 423.0: 0.007748404740200548}</t>
+    <t>{835.0: 0.9908743008536944, 836.0: 0.009125699146305564}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9922515952597994, 835.0: 0.007748404740200547}</t>
+  </si>
+  <si>
+    <t>{837.0: 0.9689657749414813, 486.0: 0.03103422505851864}</t>
+  </si>
+  <si>
+    <t>{838.0: 0.9032978861255628, 19.0: 0.08895370913423661, 423.0: 0.007748404740200547}</t>
   </si>
   <si>
     <t>{227.0: 0.9322033898305084, 686.0: 0.06779661016949153}</t>
   </si>
   <si>
-    <t>{848.0: 0.9943369513921662, 707.0: 0.0056630486078338834}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.5086748084256288, 277.0: 0.49132519157437127}</t>
+    <t>{848.0: 0.994336951392166, 707.0: 0.005663048607833884}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.1291184282474344, 277.0: 0.8708815717525659}</t>
   </si>
   <si>
     <t>{851.0: 0.9234303215926492, 7.0: 0.07656967840735067}</t>
@@ -2401,22 +2398,22 @@
     <t>{853.0: 0.9988155121756118, 91.0: 0.0011842683196829334, 92.0: 2.1950470520957514e-07}</t>
   </si>
   <si>
-    <t>{854.0: 0.873273761169781, 976.0: 0.12672623883021933}</t>
+    <t>{854.0: 0.8732737611697808, 976.0: 0.12672623883021933}</t>
   </si>
   <si>
     <t>{857.0: 1.0}</t>
   </si>
   <si>
-    <t>{858.0: 0.9872985781990522, 543.0: 0.012701421800947866}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.999269920734251, 253.0: 0.0007300792657488527}</t>
+    <t>{858.0: 0.9872985781990522, 543.0: 0.01270142180094787}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.9992699207342512, 253.0: 0.0007300792657488527}</t>
   </si>
   <si>
     <t>{863.0: 0.972273998136067, 10.0: 0.027726001863932898}</t>
   </si>
   <si>
-    <t>{887.0: 0.9991196024500588, 834.0: 0.0008803975499411181}</t>
+    <t>{887.0: 0.9991324078477681, 834.0: 0.0008675921522319133}</t>
   </si>
   <si>
     <t>{888.0: 1.0}</t>
@@ -2425,7 +2422,7 @@
     <t>{896.0: 0.6231633535004322, 897.0: 0.37683664649956783}</t>
   </si>
   <si>
-    <t>{782.0: 0.11011414486022413, 930.0: 0.8573483060191541, 404.0: 0.03253754912062153}</t>
+    <t>{782.0: 0.11021464052247712, 930.0: 0.8574692422575378, 404.0: 0.032316117219984695}</t>
   </si>
   <si>
     <t>{910.0: 1.0}</t>
@@ -2434,7 +2431,7 @@
     <t>{914.0: 1.0}</t>
   </si>
   <si>
-    <t>{915.0: 0.5124185505583967, 171.0: 0.26032762398046216, 420.0: 0.22725382546114123}</t>
+    <t>{915.0: 0.5204580106136844, 171.0: 0.2557483187470411, 420.0: 0.22379367063927466}</t>
   </si>
   <si>
     <t>{917.0: 1.0}</t>
@@ -2446,13 +2443,13 @@
     <t>{922.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.9420988600009008, 762.0: 0.05790113999909882}</t>
-  </si>
-  <si>
-    <t>{3.0: 0.6037465689154068, 418.0: 0.2270676708955246, 922.0: 0.16918576018906853}</t>
-  </si>
-  <si>
-    <t>{929.0: 0.543897130948833, 930.0: 0.45610286905116687}</t>
+    <t>{141.0: 0.9421837681943134, 762.0: 0.05781623180568699}</t>
+  </si>
+  <si>
+    <t>{3.0: 0.6037733799331189, 418.0: 0.2270600978914214, 922.0: 0.1691665221754596}</t>
+  </si>
+  <si>
+    <t>{929.0: 0.5444853873370559, 930.0: 0.455514612662944}</t>
   </si>
   <si>
     <t>{930.0: 1.0}</t>
@@ -2461,25 +2458,25 @@
     <t>{931.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.38592596558496217, 702.0: 0.6140740344150378}</t>
-  </si>
-  <si>
-    <t>{934.0: 0.9748517200474495, 5.0: 0.025148279952550416}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.9966898258011214, 171.0: 0.0033101741988785177}</t>
-  </si>
-  <si>
-    <t>{910.0: 0.49665686012302757, 497.0: 0.15993581171436216, 731.0: 0.3434073281626103}</t>
-  </si>
-  <si>
-    <t>{785.0: 0.5122362869198313, 206.0: 0.487763713080169}</t>
+    <t>{249.0: 0.38593735405789964, 702.0: 0.6140626459421006}</t>
+  </si>
+  <si>
+    <t>{934.0: 0.9748517200474496, 5.0: 0.025148279952550416}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.9966898178137209, 171.0: 0.003310182186279268}</t>
+  </si>
+  <si>
+    <t>{910.0: 0.49665686012302757, 497.0: 0.15993581171436214, 731.0: 0.34340732816261027}</t>
+  </si>
+  <si>
+    <t>{785.0: 0.4978279756733277, 206.0: 0.5021720243266724}</t>
   </si>
   <si>
     <t>{971.0: 0.9941116231438814, 975.0: 0.005888376856118792}</t>
   </si>
   <si>
-    <t>{973.0: 0.90053557765876, 494.0: 0.09946442234123953}</t>
+    <t>{973.0: 0.9007633587786259, 494.0: 0.09923664122137403}</t>
   </si>
   <si>
     <t>{975.0: 1.0}</t>
@@ -2488,16 +2485,16 @@
     <t>{976.0: 1.0}</t>
   </si>
   <si>
-    <t>{981.0: 0.5954814416352878, 431.0: 0.4045185583647122}</t>
+    <t>{981.0: 0.7119877441593259, 431.0: 0.288012255840674}</t>
   </si>
   <si>
     <t>{989.0: 0.9567945932898866, 249.0: 0.007603186097031138, 495.0: 0.035602220613082304}</t>
   </si>
   <si>
-    <t>{990.0: 0.9929775280898876, 599.0: 0.007022471910112359}</t>
-  </si>
-  <si>
-    <t>{497.0: 0.8418645926685597, 910.0: 0.0934917069132394, 731.0: 0.06464370041820106}</t>
+    <t>{990.0: 0.9929775280898875, 599.0: 0.007022471910112359}</t>
+  </si>
+  <si>
+    <t>{497.0: 0.8418645926685597, 910.0: 0.09349170691323937, 731.0: 0.06464370041820106}</t>
   </si>
   <si>
     <t>{410.0: 0.6950792670372656, 729.0: 0.3049207329627342}</t>
@@ -4560,7 +4557,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4571,7 +4568,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -4582,29 +4579,29 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>648</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>159</v>
+        <v>648</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -4615,106 +4612,106 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>649</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>164</v>
+        <v>651</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>652</v>
+        <v>165</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>166</v>
+        <v>652</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>653</v>
+        <v>167</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>636</v>
+        <v>653</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>169</v>
+        <v>636</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4725,7 +4722,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4736,7 +4733,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4747,7 +4744,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4758,7 +4755,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4769,7 +4766,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -4780,62 +4777,62 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>654</v>
+        <v>176</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>636</v>
+        <v>654</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>655</v>
+        <v>636</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>180</v>
+        <v>656</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4846,29 +4843,29 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>657</v>
+        <v>182</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>183</v>
+        <v>657</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4879,62 +4876,62 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>658</v>
+        <v>185</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>189</v>
+        <v>661</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4945,7 +4942,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4956,29 +4953,29 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>627</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>193</v>
+        <v>627</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4989,128 +4986,128 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>593</v>
+        <v>195</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>662</v>
+        <v>593</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>197</v>
+        <v>662</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>663</v>
+        <v>198</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>200</v>
+        <v>664</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>665</v>
+        <v>201</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>203</v>
+        <v>666</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>602</v>
+        <v>204</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>205</v>
+        <v>602</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -5121,7 +5118,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -5132,29 +5129,29 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>667</v>
+        <v>208</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>209</v>
+        <v>667</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -5165,7 +5162,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -5176,7 +5173,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -5187,117 +5184,117 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>668</v>
+        <v>213</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>214</v>
+        <v>668</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>669</v>
+        <v>215</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
       </c>
       <c r="C220" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
       </c>
       <c r="C221" t="s">
-        <v>222</v>
+        <v>675</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
@@ -5308,29 +5305,29 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>676</v>
+        <v>224</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>225</v>
+        <v>676</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
@@ -5341,7 +5338,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
@@ -5352,7 +5349,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
@@ -5363,7 +5360,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B228" t="s">
         <v>229</v>
@@ -7096,7 +7093,7 @@
         <v>386</v>
       </c>
       <c r="C385" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -7129,7 +7126,7 @@
         <v>389</v>
       </c>
       <c r="C388" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -7162,7 +7159,7 @@
         <v>392</v>
       </c>
       <c r="C391" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -7206,7 +7203,7 @@
         <v>396</v>
       </c>
       <c r="C395" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -7228,7 +7225,7 @@
         <v>398</v>
       </c>
       <c r="C397" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -7272,7 +7269,7 @@
         <v>402</v>
       </c>
       <c r="C401" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -7316,7 +7313,7 @@
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -7349,7 +7346,7 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -7360,7 +7357,7 @@
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -7371,7 +7368,7 @@
         <v>411</v>
       </c>
       <c r="C410" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -7393,7 +7390,7 @@
         <v>413</v>
       </c>
       <c r="C412" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -7426,7 +7423,7 @@
         <v>416</v>
       </c>
       <c r="C415" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -7437,7 +7434,7 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7448,7 +7445,7 @@
         <v>418</v>
       </c>
       <c r="C417" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -7481,7 +7478,7 @@
         <v>421</v>
       </c>
       <c r="C420" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -7503,7 +7500,7 @@
         <v>423</v>
       </c>
       <c r="C422" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -7514,7 +7511,7 @@
         <v>424</v>
       </c>
       <c r="C423" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -7547,7 +7544,7 @@
         <v>427</v>
       </c>
       <c r="C426" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -7558,7 +7555,7 @@
         <v>428</v>
       </c>
       <c r="C427" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -7569,7 +7566,7 @@
         <v>429</v>
       </c>
       <c r="C428" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -7591,7 +7588,7 @@
         <v>431</v>
       </c>
       <c r="C430" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7602,7 +7599,7 @@
         <v>432</v>
       </c>
       <c r="C431" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -7624,7 +7621,7 @@
         <v>434</v>
       </c>
       <c r="C433" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -7635,7 +7632,7 @@
         <v>435</v>
       </c>
       <c r="C434" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -7657,7 +7654,7 @@
         <v>437</v>
       </c>
       <c r="C436" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -7668,7 +7665,7 @@
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7701,7 +7698,7 @@
         <v>441</v>
       </c>
       <c r="C440" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7723,7 +7720,7 @@
         <v>443</v>
       </c>
       <c r="C442" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7756,7 +7753,7 @@
         <v>446</v>
       </c>
       <c r="C445" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -7789,7 +7786,7 @@
         <v>449</v>
       </c>
       <c r="C448" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -7822,7 +7819,7 @@
         <v>452</v>
       </c>
       <c r="C451" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -7833,7 +7830,7 @@
         <v>453</v>
       </c>
       <c r="C452" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -7844,7 +7841,7 @@
         <v>454</v>
       </c>
       <c r="C453" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -7866,7 +7863,7 @@
         <v>456</v>
       </c>
       <c r="C455" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -7899,7 +7896,7 @@
         <v>459</v>
       </c>
       <c r="C458" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -7954,7 +7951,7 @@
         <v>464</v>
       </c>
       <c r="C463" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7965,7 +7962,7 @@
         <v>465</v>
       </c>
       <c r="C464" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -8009,7 +8006,7 @@
         <v>469</v>
       </c>
       <c r="C468" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -8031,7 +8028,7 @@
         <v>471</v>
       </c>
       <c r="C470" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -8053,7 +8050,7 @@
         <v>473</v>
       </c>
       <c r="C472" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -8086,7 +8083,7 @@
         <v>476</v>
       </c>
       <c r="C475" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -8097,7 +8094,7 @@
         <v>477</v>
       </c>
       <c r="C476" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -8108,7 +8105,7 @@
         <v>478</v>
       </c>
       <c r="C477" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -8130,7 +8127,7 @@
         <v>480</v>
       </c>
       <c r="C479" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -8152,7 +8149,7 @@
         <v>482</v>
       </c>
       <c r="C481" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -8185,7 +8182,7 @@
         <v>485</v>
       </c>
       <c r="C484" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -8196,7 +8193,7 @@
         <v>486</v>
       </c>
       <c r="C485" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -8207,7 +8204,7 @@
         <v>487</v>
       </c>
       <c r="C486" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -8218,7 +8215,7 @@
         <v>488</v>
       </c>
       <c r="C487" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -8284,7 +8281,7 @@
         <v>494</v>
       </c>
       <c r="C493" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -8328,7 +8325,7 @@
         <v>498</v>
       </c>
       <c r="C497" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -8350,7 +8347,7 @@
         <v>500</v>
       </c>
       <c r="C499" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -8361,7 +8358,7 @@
         <v>501</v>
       </c>
       <c r="C500" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -8383,7 +8380,7 @@
         <v>503</v>
       </c>
       <c r="C502" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -8394,7 +8391,7 @@
         <v>504</v>
       </c>
       <c r="C503" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -8427,7 +8424,7 @@
         <v>507</v>
       </c>
       <c r="C506" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -8438,7 +8435,7 @@
         <v>508</v>
       </c>
       <c r="C507" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -8471,7 +8468,7 @@
         <v>511</v>
       </c>
       <c r="C510" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -8482,7 +8479,7 @@
         <v>512</v>
       </c>
       <c r="C511" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -8493,7 +8490,7 @@
         <v>513</v>
       </c>
       <c r="C512" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -8526,7 +8523,7 @@
         <v>516</v>
       </c>
       <c r="C515" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -8537,7 +8534,7 @@
         <v>517</v>
       </c>
       <c r="C516" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -8625,7 +8622,7 @@
         <v>525</v>
       </c>
       <c r="C524" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -8669,7 +8666,7 @@
         <v>529</v>
       </c>
       <c r="C528" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -8691,7 +8688,7 @@
         <v>531</v>
       </c>
       <c r="C530" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -8724,7 +8721,7 @@
         <v>534</v>
       </c>
       <c r="C533" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -8735,7 +8732,7 @@
         <v>535</v>
       </c>
       <c r="C534" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -8757,7 +8754,7 @@
         <v>537</v>
       </c>
       <c r="C536" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -8801,7 +8798,7 @@
         <v>541</v>
       </c>
       <c r="C540" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -8812,7 +8809,7 @@
         <v>542</v>
       </c>
       <c r="C541" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -8845,7 +8842,7 @@
         <v>545</v>
       </c>
       <c r="C544" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -8878,7 +8875,7 @@
         <v>548</v>
       </c>
       <c r="C547" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -8889,7 +8886,7 @@
         <v>549</v>
       </c>
       <c r="C548" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -8900,7 +8897,7 @@
         <v>550</v>
       </c>
       <c r="C549" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -8911,7 +8908,7 @@
         <v>551</v>
       </c>
       <c r="C550" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -8933,7 +8930,7 @@
         <v>553</v>
       </c>
       <c r="C552" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -8944,7 +8941,7 @@
         <v>554</v>
       </c>
       <c r="C553" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -8977,7 +8974,7 @@
         <v>557</v>
       </c>
       <c r="C556" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -8988,7 +8985,7 @@
         <v>558</v>
       </c>
       <c r="C557" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -9010,7 +9007,7 @@
         <v>560</v>
       </c>
       <c r="C559" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -9065,7 +9062,7 @@
         <v>565</v>
       </c>
       <c r="C564" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -9087,7 +9084,7 @@
         <v>567</v>
       </c>
       <c r="C566" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -9109,7 +9106,7 @@
         <v>569</v>
       </c>
       <c r="C568" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -9120,7 +9117,7 @@
         <v>570</v>
       </c>
       <c r="C569" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -9142,7 +9139,7 @@
         <v>572</v>
       </c>
       <c r="C571" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -9175,7 +9172,7 @@
         <v>575</v>
       </c>
       <c r="C574" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -9186,7 +9183,7 @@
         <v>576</v>
       </c>
       <c r="C575" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -9197,7 +9194,7 @@
         <v>577</v>
       </c>
       <c r="C576" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -9208,7 +9205,7 @@
         <v>578</v>
       </c>
       <c r="C577" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -9219,7 +9216,7 @@
         <v>579</v>
       </c>
       <c r="C578" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
   </sheetData>
